--- a/src/python/IDP_DATA_MENTEE.xlsx
+++ b/src/python/IDP_DATA_MENTEE.xlsx
@@ -1434,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,7 +2119,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hhs</t>
+          <t>bvs</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2129,32 +2129,10 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hóa mỹ phẩm</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>bhs</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Hóa mỹ phẩm</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>

--- a/src/python/IDP_DATA_MENTEE.xlsx
+++ b/src/python/IDP_DATA_MENTEE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12885" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14400" windowHeight="12900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mentee" sheetId="1" state="visible" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,12 +2119,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bvs</t>
+          <t>axl</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2133,6 +2133,50 @@
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hhs</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hóa mỹ phẩm</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>hhs</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Hóa vô cơ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>

--- a/src/python/IDP_DATA_MENTEE.xlsx
+++ b/src/python/IDP_DATA_MENTEE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14400" windowHeight="12900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12885" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mentee" sheetId="1" state="visible" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,7 +2119,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>axl</t>
+          <t>Trường hợp 1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Kinh doanh quốc tế</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2141,17 +2141,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hhs</t>
+          <t>Trường hợp 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hóa mỹ phẩm</t>
+          <t>Tín dụng ngân hàng</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2163,7 +2163,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hhs</t>
+          <t>Trường hợp 3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2173,10 +2173,120 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hóa vô cơ</t>
+          <t>Web development</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Trường hợp 3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Web development</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Trường hợp 3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>An toàn ứng dụng</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Trường hợp 4</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ngân hàng thương mại</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Trường hợp 5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Content creator</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Trường hợp 5</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Content creator</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>

--- a/src/python/IDP_DATA_MENTEE.xlsx
+++ b/src/python/IDP_DATA_MENTEE.xlsx
@@ -1434,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2287,6 +2287,270 @@
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>acsg</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>An ninh mạng</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>acsg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Công nghệ thông tin</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BÙI XUÂN LỘC</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Công nghệ thông tin</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BÙI XUÂN LỘC</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BÙI XUÂN LỘC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>abc1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>abc2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>abc3</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>abc4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ABCS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>An ninh mạng</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>

--- a/src/python/IDP_DATA_MENTEE.xlsx
+++ b/src/python/IDP_DATA_MENTEE.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="93">
   <si>
     <t>Họ tên</t>
   </si>
@@ -166,45 +166,6 @@
     <t>Trí tuệ nhân tạo</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Trường hợp 1</t>
-  </si>
-  <si>
-    <t>Trường hợp 2</t>
-  </si>
-  <si>
-    <t>Tín dụng ngân hàng</t>
-  </si>
-  <si>
-    <t>Trường hợp 3</t>
-  </si>
-  <si>
-    <t>Web development</t>
-  </si>
-  <si>
-    <t>An toàn ứng dụng</t>
-  </si>
-  <si>
-    <t>Trường hợp 4</t>
-  </si>
-  <si>
-    <t>Ngân hàng thương mại</t>
-  </si>
-  <si>
-    <t>Trường hợp 5</t>
-  </si>
-  <si>
-    <t>acsg</t>
-  </si>
-  <si>
-    <t>An ninh mạng</t>
-  </si>
-  <si>
-    <t>BÙI XUÂN LỘC</t>
-  </si>
-  <si>
     <t>HOÀNG THỊ THOA (LISA THOA)</t>
   </si>
   <si>
@@ -214,133 +175,139 @@
     <t>Kinh tế</t>
   </si>
   <si>
+    <t>Lý luận chính trị</t>
+  </si>
+  <si>
+    <t>Đổi mới sáng tạo và khởi nghiệp</t>
+  </si>
+  <si>
+    <t>Doanh nghiệp xã hội</t>
+  </si>
+  <si>
+    <t>khởi nghiệp đổi mới sáng tạo tạo tác động xã hội</t>
+  </si>
+  <si>
+    <t>Võ Thị Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Ngân hàng</t>
+  </si>
+  <si>
+    <t>Trần Đức Thảo</t>
+  </si>
+  <si>
+    <t>Công nghệ môi trường.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trung cấp lý luận chính trị.</t>
+  </si>
+  <si>
+    <t>đổi mới sáng tạo và khởi nghiệp.</t>
+  </si>
+  <si>
+    <t>Wilson Lieu</t>
+  </si>
+  <si>
+    <t>Tư vấn việc làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN THỊ HỒNG ANH </t>
+  </si>
+  <si>
+    <t>Hóa học</t>
+  </si>
+  <si>
+    <t>Công nghệ Hữu cơ</t>
+  </si>
+  <si>
+    <t>Hoá mỹ phẩm</t>
+  </si>
+  <si>
+    <t>PHẠM VĂN VƯƠNG</t>
+  </si>
+  <si>
+    <t>Quản trị doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công nghệ sinh học ứng dụng</t>
+  </si>
+  <si>
+    <t>Công nghệ thực phẩm</t>
+  </si>
+  <si>
+    <t>Công nghệ sinh học</t>
+  </si>
+  <si>
+    <t>NGUYỄN HỒNG HẢI</t>
+  </si>
+  <si>
+    <t>LÊ HOÀNG LÂM</t>
+  </si>
+  <si>
+    <t>LƯƠNG NGUYỄN KHÁNH VĂN</t>
+  </si>
+  <si>
+    <t>ĐẶNG THỊ YẾN</t>
+  </si>
+  <si>
+    <t>Khoa học thực phẩm</t>
+  </si>
+  <si>
+    <t>Công nghệ sau thu hoạch</t>
+  </si>
+  <si>
+    <t>Kỹ thuật thực phẩm</t>
+  </si>
+  <si>
+    <t>Công nghệ chế biến sản phẩm thủy sản</t>
+  </si>
+  <si>
+    <t>Nghiên cứu khách hàng</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ PHƯƠNG HẠ</t>
+  </si>
+  <si>
+    <t>Quản trị Doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Đinh Nguyễn Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t>PHẠM MINH LUÂN</t>
+  </si>
+  <si>
+    <t>Du lịch ẩm thực</t>
+  </si>
+  <si>
+    <t>Phạm Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Nuôi trồng thủy hải sản</t>
+  </si>
+  <si>
+    <t>Nông nghiệp</t>
+  </si>
+  <si>
+    <t>Hoàng Tiến Phát</t>
+  </si>
+  <si>
+    <t>NGUYỄN TUẤN KHỞI</t>
+  </si>
+  <si>
+    <t>Báo chí truyền thông</t>
+  </si>
+  <si>
+    <t>NGUYỄN HOÀNG TRÚC LINH</t>
+  </si>
+  <si>
     <t>Lý luận chính trị.</t>
   </si>
   <si>
-    <t>Đổi mới sáng tạo và khởi nghiệp</t>
-  </si>
-  <si>
     <t>Doanh nghiệp xã hội.</t>
-  </si>
-  <si>
-    <t>khởi nghiệp đổi mới sáng tạo tạo tác động xã hội</t>
-  </si>
-  <si>
-    <t>Võ Thị Thúy Hằng</t>
-  </si>
-  <si>
-    <t>Ngân hàng</t>
-  </si>
-  <si>
-    <t>Trần Đức Thảo</t>
-  </si>
-  <si>
-    <t>Công nghệ môi trường.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trung cấp lý luận chính trị.</t>
-  </si>
-  <si>
-    <t>đổi mới sáng tạo và khởi nghiệp.</t>
-  </si>
-  <si>
-    <t>Wilson Lieu</t>
-  </si>
-  <si>
-    <t>Tư vấn việc làm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYỄN THỊ HỒNG ANH </t>
-  </si>
-  <si>
-    <t>Hóa học</t>
-  </si>
-  <si>
-    <t>Công nghệ Hữu cơ</t>
-  </si>
-  <si>
-    <t>Hoá mỹ phẩm</t>
-  </si>
-  <si>
-    <t>PHẠM VĂN VƯƠNG</t>
-  </si>
-  <si>
-    <t>Quản trị doanh nghiệp</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thùy Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Công nghệ sinh học ứng dụng</t>
-  </si>
-  <si>
-    <t>Công nghệ thực phẩm</t>
-  </si>
-  <si>
-    <t>Công nghệ sinh học</t>
-  </si>
-  <si>
-    <t>NGUYỄN HỒNG HẢI</t>
-  </si>
-  <si>
-    <t>LÊ HOÀNG LÂM</t>
-  </si>
-  <si>
-    <t>LƯƠNG NGUYỄN KHÁNH VĂN</t>
-  </si>
-  <si>
-    <t>ĐẶNG THỊ YẾN</t>
-  </si>
-  <si>
-    <t>Khoa học thực phẩm</t>
-  </si>
-  <si>
-    <t>Công nghệ sau thu hoạch</t>
-  </si>
-  <si>
-    <t>Kỹ thuật thực phẩm</t>
-  </si>
-  <si>
-    <t>Công nghệ chế biến sản phẩm thủy sản</t>
-  </si>
-  <si>
-    <t>Nghiên cứu khách hàng</t>
-  </si>
-  <si>
-    <t>PHẠM THỊ PHƯƠNG HẠ</t>
-  </si>
-  <si>
-    <t>Quản trị Doanh nghiệp</t>
-  </si>
-  <si>
-    <t>Đinh Nguyễn Trọng Nghĩa</t>
-  </si>
-  <si>
-    <t>PHẠM MINH LUÂN</t>
-  </si>
-  <si>
-    <t>Du lịch ẩm thực</t>
-  </si>
-  <si>
-    <t>Phạm Minh Tuấn</t>
-  </si>
-  <si>
-    <t>Nuôi trồng thủy hải sản</t>
-  </si>
-  <si>
-    <t>Nông nghiệp</t>
-  </si>
-  <si>
-    <t>Hoàng Tiến Phát</t>
-  </si>
-  <si>
-    <t>NGUYỄN TUẤN KHỞI</t>
-  </si>
-  <si>
-    <t>Báo chí truyền thông</t>
-  </si>
-  <si>
-    <t>NGUYỄN HOÀNG TRÚC LINH</t>
   </si>
 </sst>
 </file>
@@ -1679,13 +1646,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="9.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="37.5714285714286" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="40" t="s">
@@ -2105,174 +2077,6 @@
       </c>
       <c r="D30" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2288,8 +2092,8 @@
   </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2316,7 +2120,7 @@
     </row>
     <row r="2" ht="33.75" customHeight="1" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>5</v>
@@ -2325,72 +2129,72 @@
         <v>9</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="33.75" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" ht="33.75" customHeight="1" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" ht="33.75" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D5" s="21"/>
     </row>
     <row r="6" ht="33.75" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D6" s="21"/>
     </row>
     <row r="7" ht="33.75" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D7" s="24"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:4">
       <c r="A8" s="25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>5</v>
@@ -2399,12 +2203,12 @@
         <v>9</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>5</v>
@@ -2416,19 +2220,19 @@
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D10" s="21"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>5</v>
@@ -2440,45 +2244,45 @@
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:4">
       <c r="A13" s="25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:4">
       <c r="A14" s="25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D14" s="24"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:4">
       <c r="A15" s="29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>18</v>
@@ -2487,24 +2291,24 @@
         <v>30</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:4">
       <c r="A16" s="29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D16" s="21"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:4">
       <c r="A17" s="29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>18</v>
@@ -2516,59 +2320,59 @@
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:4">
       <c r="A19" s="25" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D19" s="21"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:4">
       <c r="A20" s="25" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="1:4">
       <c r="A21" s="25" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="1:4">
       <c r="A22" s="25" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>18</v>
@@ -2580,45 +2384,45 @@
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="1:4">
       <c r="A23" s="25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="1:4">
       <c r="A24" s="25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="1:4">
       <c r="A25" s="25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D25" s="24"/>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="1:4">
       <c r="A26" s="33" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>18</v>
@@ -2627,12 +2431,12 @@
         <v>9</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="1:4">
       <c r="A27" s="25" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>18</v>
@@ -2641,12 +2445,12 @@
         <v>9</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="1:4">
       <c r="A28" s="25" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>18</v>
@@ -2658,7 +2462,7 @@
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="1:4">
       <c r="A29" s="25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>18</v>
@@ -2667,12 +2471,12 @@
         <v>9</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="1:4">
       <c r="A30" s="25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>18</v>
@@ -2684,7 +2488,7 @@
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="1:4">
       <c r="A31" s="25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>18</v>
@@ -2696,7 +2500,7 @@
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="1:4">
       <c r="A32" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>5</v>
@@ -2705,86 +2509,86 @@
         <v>15</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="1:4">
       <c r="A33" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D33" s="21"/>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="1:4">
       <c r="A34" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D34" s="21"/>
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="1:4">
       <c r="A35" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D35" s="21"/>
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="1:4">
       <c r="A36" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D36" s="21"/>
     </row>
     <row r="37" ht="17.25" customHeight="1" spans="1:4">
       <c r="A37" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D37" s="24"/>
     </row>
     <row r="38" ht="17.25" customHeight="1" spans="1:4">
       <c r="A38" s="25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="17.25" customHeight="1" spans="1:4">
       <c r="A39" s="25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>5</v>
@@ -2796,7 +2600,7 @@
     </row>
     <row r="40" ht="17.25" customHeight="1" spans="1:4">
       <c r="A40" s="25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>5</v>
@@ -2808,7 +2612,7 @@
     </row>
     <row r="41" ht="17.25" customHeight="1" spans="1:4">
       <c r="A41" s="25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>5</v>
@@ -2820,7 +2624,7 @@
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:4">
       <c r="A42" s="25" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>18</v>
@@ -2829,12 +2633,12 @@
         <v>30</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" spans="1:4">
       <c r="A43" s="25" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>18</v>
@@ -2846,7 +2650,7 @@
     </row>
     <row r="44" ht="17.25" customHeight="1" spans="1:4">
       <c r="A44" s="25" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>18</v>
@@ -2855,12 +2659,12 @@
         <v>9</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:4">
       <c r="A45" s="25" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>18</v>
@@ -2872,19 +2676,19 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:4">
       <c r="A46" s="25" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D46" s="21"/>
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:4">
       <c r="A47" s="25" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>18</v>
@@ -2896,95 +2700,95 @@
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:4">
       <c r="A48" s="25" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D48" s="24"/>
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:4">
       <c r="A49" s="25" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="17.25" customHeight="1" spans="1:4">
       <c r="A50" s="25" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D50" s="21"/>
     </row>
     <row r="51" ht="17.25" customHeight="1" spans="1:4">
       <c r="A51" s="25" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D51" s="24"/>
     </row>
     <row r="52" ht="17.25" customHeight="1" spans="1:4">
       <c r="A52" s="25" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="17.25" customHeight="1" spans="1:4">
       <c r="A53" s="25" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" ht="17.25" customHeight="1" spans="1:4">
       <c r="A54" s="25" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D54" s="21"/>
     </row>
     <row r="55" ht="17.25" customHeight="1" spans="1:4">
       <c r="A55" s="25" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>18</v>
@@ -2996,21 +2800,21 @@
     </row>
     <row r="56" ht="17.25" customHeight="1" spans="1:4">
       <c r="A56" s="25" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="17.25" customHeight="1" spans="1:4">
       <c r="A57" s="25" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>18</v>
@@ -3022,7 +2826,7 @@
     </row>
     <row r="58" ht="17.25" customHeight="1" spans="1:4">
       <c r="A58" s="25" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>5</v>
@@ -3031,12 +2835,12 @@
         <v>9</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="17.25" customHeight="1" spans="1:4">
       <c r="A59" s="25" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>5</v>
@@ -3108,24 +2912,24 @@
         <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="36.75" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>

--- a/src/python/IDP_DATA_MENTEE.xlsx
+++ b/src/python/IDP_DATA_MENTEE.xlsx
@@ -1649,15 +1649,10 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="A31" sqref="$A31:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="9.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="37.5714285714286" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="40" t="s">
